--- a/docs/UserStories.xlsx
+++ b/docs/UserStories.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="96">
   <si>
     <t>User Stories - Reginleif Klein, Sebastian Scherübl, Ruoyu Xu</t>
   </si>
@@ -158,10 +158,10 @@
     <t>statistisch signifikante Unterschiede zu identifizieren.</t>
   </si>
   <si>
-    <t>Implemented</t>
+    <t>Implementiert</t>
   </si>
   <si>
-    <t>Didn't implemnt becauseof time an ressources</t>
+    <t>Nicht implementiert (wegen zeitlichen Rahmen/Ressourcen)</t>
   </si>
   <si>
     <t>Darstellung</t>
@@ -203,10 +203,16 @@
     <t>dafür eine geeignete Auswertung durchführen zu können.</t>
   </si>
   <si>
+    <t>Recherche</t>
+  </si>
+  <si>
     <t>die Maske um Zeilen erweitern</t>
   </si>
   <si>
     <t>die Maske an die Anzahl meiner Probanden anzupassen.</t>
+  </si>
+  <si>
+    <t>Während Konzeptionierung</t>
   </si>
   <si>
     <t>demographische Daten hochladen</t>
@@ -224,7 +230,10 @@
     <t>sie für meine Bedürfnisse anzupassen.</t>
   </si>
   <si>
-    <t>meine hochgeladenen Daten in einem Diagramm visualisiert haben</t>
+    <t>Während Umsetzung</t>
+  </si>
+  <si>
+    <t>meine hochgeladenen Daten in einer Visualisierung (z.B. Tabelle) visualisiert haben</t>
   </si>
   <si>
     <t>sie auf ihre Richtigkeit zu überprüfen.</t>
@@ -236,7 +245,7 @@
     <t>bei Fehlern den korrekten Datensatz hochzuladen.</t>
   </si>
   <si>
-    <t>Berchenung mit meinen Daten durchführen können</t>
+    <t>Berchnung mit meinen Daten durchführen können</t>
   </si>
   <si>
     <t>sie umfassend auswerten zu können.</t>
@@ -583,12 +592,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="12.63"/>
-    <col customWidth="1" min="4" max="4" width="58.88"/>
+    <col customWidth="1" min="4" max="4" width="60.75"/>
     <col customWidth="1" min="5" max="5" width="45.25"/>
     <col customWidth="1" min="6" max="6" width="6.13"/>
     <col customWidth="1" min="7" max="7" width="10.0"/>
-    <col customWidth="1" min="8" max="8" width="14.88"/>
-    <col customWidth="1" min="11" max="11" width="34.38"/>
+    <col customWidth="1" min="8" max="8" width="20.5"/>
+    <col customWidth="1" min="11" max="11" width="44.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1550,6 +1559,8 @@
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1567,8 +1578,15 @@
       <c r="E23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1581,13 +1599,20 @@
         <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1600,13 +1625,20 @@
         <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1619,33 +1651,46 @@
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1678,10 +1723,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -1695,48 +1749,72 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1769,10 +1847,19 @@
         <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
@@ -1786,10 +1873,19 @@
         <v>11</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
@@ -1803,49 +1899,24 @@
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C21 C23:C36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C21 C23:C34">
       <formula1>"App User,Web User,Evil Robot"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1982,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2">
         <v>1.0</v>
@@ -2037,7 +2108,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2074,7 +2145,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <v>4.0</v>
@@ -2083,7 +2154,7 @@
         <v>3.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2129,7 +2200,7 @@
         <v>3.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2163,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -2175,7 +2246,7 @@
         <v>3.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2209,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -2221,7 +2292,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2255,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>52</v>
@@ -2534,7 +2605,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <v>2.0</v>
@@ -2623,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>52</v>
@@ -2669,10 +2740,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
